--- a/Output/test5_page0.xlsx
+++ b/Output/test5_page0.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Country Code</t>
+          <t>Couniry Cocle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Phone Code</t>
+          <t>#hone Cocle</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Arula</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -491,17 +491,17 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>AV</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Austra ia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>6'</t>
         </is>
       </c>
     </row>
@@ -509,35 +509,31 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4&gt;</t>
-        </is>
-      </c>
+          <t>Ausula</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Azer)aijan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>99-</t>
         </is>
       </c>
     </row>
@@ -545,19 +541,15 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>3S</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bahamas</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1241</t>
-        </is>
-      </c>
+          <t>3ahaiuac</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -565,14 +557,10 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BH</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>%ka Irain</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
